--- a/xlsx/非关税壁垒_intext.xlsx
+++ b/xlsx/非关税壁垒_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E7%A8%85</t>
   </si>
   <si>
-    <t>關稅</t>
-  </si>
-  <si>
-    <t>政策_政策_貨幣政策_非关税壁垒</t>
+    <t>关税</t>
+  </si>
+  <si>
+    <t>政策_政策_货币政策_非关税壁垒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
